--- a/Proyecto-SergioCanoSilva/Usado en el proyecto/DICCIONARIO.xlsx
+++ b/Proyecto-SergioCanoSilva/Usado en el proyecto/DICCIONARIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIISI\TERCERO\Segundo cuatrimestre\Mineria de datos\Parte1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\knime-workspace\MD\Proyecto-SergioCanoSilva\Usado en el proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EDEFC0-FA13-40BC-A8BE-0DB160CE7297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77240E3E-1C6D-482A-B79E-BD5AE7363B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="4" r:id="rId1"/>
@@ -1617,26 +1617,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.9296875" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.46484375" customWidth="1"/>
-    <col min="10" max="10" width="52.796875" customWidth="1"/>
-    <col min="11" max="11" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="52.85546875" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="27" t="s">
         <v>11</v>
@@ -1688,7 +1688,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="31"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="27" t="s">
         <v>12</v>
@@ -1705,7 +1705,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="27" t="s">
         <v>13</v>
@@ -1722,7 +1722,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="B5" s="27" t="s">
         <v>14</v>
@@ -1739,7 +1739,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="27" t="s">
         <v>15</v>
@@ -1756,7 +1756,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="27" t="s">
         <v>41</v>
@@ -1773,7 +1773,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="27" t="s">
         <v>17</v>
@@ -1790,7 +1790,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="27" t="s">
         <v>18</v>
@@ -1807,7 +1807,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="27" t="s">
         <v>19</v>
@@ -1824,7 +1824,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="27" t="s">
         <v>20</v>
@@ -1841,7 +1841,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
       <c r="B12" s="27" t="s">
         <v>21</v>
@@ -1858,7 +1858,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="27" t="s">
         <v>23</v>
@@ -1894,7 +1894,7 @@
       <c r="J14" s="43"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="27" t="s">
         <v>24</v>
@@ -1911,7 +1911,7 @@
       <c r="J15" s="43"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="27" t="s">
         <v>25</v>
@@ -1928,7 +1928,7 @@
       <c r="J16" s="43"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="27" t="s">
         <v>26</v>
@@ -1945,7 +1945,7 @@
       <c r="J17" s="43"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="27" t="s">
         <v>27</v>
@@ -1962,7 +1962,7 @@
       <c r="J18" s="43"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="27" t="s">
         <v>28</v>
@@ -1979,7 +1979,7 @@
       <c r="J19" s="43"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="27" t="s">
         <v>29</v>
@@ -1996,7 +1996,7 @@
       <c r="J20" s="43"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="27" t="s">
         <v>30</v>
@@ -2013,7 +2013,7 @@
       <c r="J21" s="43"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="27" t="s">
         <v>31</v>
@@ -2030,7 +2030,7 @@
       <c r="J22" s="43"/>
       <c r="K22" s="44"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="27" t="s">
         <v>32</v>
@@ -2047,7 +2047,7 @@
       <c r="J23" s="43"/>
       <c r="K23" s="44"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="27" t="s">
         <v>33</v>
@@ -2064,7 +2064,7 @@
       <c r="J24" s="43"/>
       <c r="K24" s="44"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="27" t="s">
         <v>38</v>
@@ -2081,7 +2081,7 @@
       <c r="J25" s="43"/>
       <c r="K25" s="44"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="27" t="s">
         <v>35</v>
@@ -2098,7 +2098,7 @@
       <c r="J26" s="43"/>
       <c r="K26" s="44"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="27" t="s">
         <v>36</v>
@@ -2115,7 +2115,7 @@
       <c r="J27" s="43"/>
       <c r="K27" s="44"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="27" t="s">
         <v>37</v>
@@ -2132,7 +2132,7 @@
       <c r="J28" s="43"/>
       <c r="K28" s="44"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -2145,7 +2145,7 @@
       <c r="J29" s="43"/>
       <c r="K29" s="44"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -2158,7 +2158,7 @@
       <c r="J30" s="43"/>
       <c r="K30" s="44"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -2171,7 +2171,7 @@
       <c r="J31" s="43"/>
       <c r="K31" s="44"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -2184,7 +2184,7 @@
       <c r="J32" s="43"/>
       <c r="K32" s="44"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2197,7 +2197,7 @@
       <c r="J33" s="43"/>
       <c r="K33" s="44"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -2210,7 +2210,7 @@
       <c r="J34" s="43"/>
       <c r="K34" s="44"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2223,7 +2223,7 @@
       <c r="J35" s="36"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -2236,7 +2236,7 @@
       <c r="J36" s="36"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2249,7 +2249,7 @@
       <c r="J37" s="37"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>6</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="J38" s="35"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -2279,7 +2279,7 @@
       <c r="J39" s="36"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2292,7 +2292,7 @@
       <c r="J40" s="36"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2305,7 +2305,7 @@
       <c r="J41" s="36"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2318,7 +2318,7 @@
       <c r="J42" s="36"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2331,7 +2331,7 @@
       <c r="J43" s="36"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2344,7 +2344,7 @@
       <c r="J44" s="36"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -2357,103 +2357,103 @@
       <c r="J45" s="37"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="27"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="27"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="27"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" s="27"/>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" s="27"/>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="27"/>
     </row>
   </sheetData>

--- a/Proyecto-SergioCanoSilva/Usado en el proyecto/DICCIONARIO.xlsx
+++ b/Proyecto-SergioCanoSilva/Usado en el proyecto/DICCIONARIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\knime-workspace\MD\Proyecto-SergioCanoSilva\Usado en el proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77240E3E-1C6D-482A-B79E-BD5AE7363B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9E8E2-2CA0-490D-A5CD-6C30939F745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="1905" windowWidth="17670" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="4" r:id="rId1"/>
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
